--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,6 +76,18 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
@@ -97,7 +109,7 @@
     <t>0.349</t>
   </si>
   <si>
-    <t>0.004+/-0.002</t>
+    <t>0.003+/-0.0</t>
   </si>
   <si>
     <t>0.806+/-0.001</t>
@@ -127,7 +139,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>0.266+/-0.034</t>
+    <t>0.172+/-0.012</t>
   </si>
   <si>
     <t>0.705+/-0.005</t>
@@ -157,7 +169,7 @@
     <t>0.589</t>
   </si>
   <si>
-    <t>0.008+/-0.002</t>
+    <t>0.005+/-0.001</t>
   </si>
   <si>
     <t>0.776+/-0.001</t>
@@ -187,97 +199,94 @@
     <t>0.477</t>
   </si>
   <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.922+/-0.006</t>
-  </si>
-  <si>
-    <t>0.878+/-0.0</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.852+/-0.041</t>
-  </si>
-  <si>
-    <t>0.731+/-0.031</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.748+/-0.05</t>
-  </si>
-  <si>
-    <t>0.627+/-0.058</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>5.213+/-1.291</t>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.925+/-0.007</t>
+  </si>
+  <si>
+    <t>0.883+/-0.0</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>0.862+/-0.03</t>
+  </si>
+  <si>
+    <t>0.748+/-0.046</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.748+/-0.051</t>
+  </si>
+  <si>
+    <t>0.638+/-0.054</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>3.247+/-0.634</t>
   </si>
   <si>
     <t>0.947+/-0.003</t>
   </si>
   <si>
-    <t>0.871+/-0.0</t>
+    <t>0.87+/-0.0</t>
   </si>
   <si>
     <t>0.865</t>
   </si>
   <si>
-    <t>0.903+/-0.016</t>
-  </si>
-  <si>
-    <t>0.692+/-0.03</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.823+/-0.015</t>
-  </si>
-  <si>
-    <t>0.645+/-0.054</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.114+/-0.013</t>
+    <t>0.904+/-0.015</t>
+  </si>
+  <si>
+    <t>0.691+/-0.035</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.822+/-0.013</t>
+  </si>
+  <si>
+    <t>0.645+/-0.049</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.084+/-0.01</t>
   </si>
   <si>
     <t>0.933+/-0.002</t>
   </si>
   <si>
-    <t>0.869+/-0.0</t>
-  </si>
-  <si>
     <t>0.868</t>
   </si>
   <si>
-    <t>0.874+/-0.027</t>
-  </si>
-  <si>
-    <t>0.696+/-0.034</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.783+/-0.026</t>
-  </si>
-  <si>
-    <t>0.623+/-0.049</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.135+/-0.01</t>
+    <t>0.875+/-0.026</t>
+  </si>
+  <si>
+    <t>0.701+/-0.04</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.78+/-0.026</t>
+  </si>
+  <si>
+    <t>0.622+/-0.049</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.105+/-0.012</t>
   </si>
   <si>
     <t>0.866+/-0.002</t>
@@ -307,7 +316,13 @@
     <t>0.333</t>
   </si>
   <si>
-    <t>12.455+/-2.258</t>
+    <t>9.014+/-0.998</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.875+/-0.0</t>
@@ -325,7 +340,7 @@
     <t>0.262</t>
   </si>
   <si>
-    <t>0.003+/-0.002</t>
+    <t>0.002+/-0.0</t>
   </si>
   <si>
     <t>0.858+/-0.001</t>
@@ -355,7 +370,7 @@
     <t>0.118</t>
   </si>
   <si>
-    <t>0.16+/-0.019</t>
+    <t>0.145+/-0.009</t>
   </si>
   <si>
     <t>0.796+/-0.004</t>
@@ -385,7 +400,7 @@
     <t>0.47</t>
   </si>
   <si>
-    <t>0.004+/-0.0</t>
+    <t>0.004+/-0.001</t>
   </si>
   <si>
     <t>0.83+/-0.001</t>
@@ -415,366 +430,375 @@
     <t>0.444</t>
   </si>
   <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.928+/-0.005</t>
-  </si>
-  <si>
-    <t>0.888+/-0.0</t>
-  </si>
-  <si>
-    <t>0.891</t>
-  </si>
-  <si>
-    <t>0.822+/-0.027</t>
-  </si>
-  <si>
-    <t>0.66+/-0.061</t>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.929+/-0.005</t>
+  </si>
+  <si>
+    <t>0.885+/-0.0</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>0.817+/-0.043</t>
+  </si>
+  <si>
+    <t>0.645+/-0.052</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.683+/-0.04</t>
+  </si>
+  <si>
+    <t>0.527+/-0.051</t>
+  </si>
+  <si>
+    <t>2.822+/-0.476</t>
+  </si>
+  <si>
+    <t>0.886+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>0.875+/-0.017</t>
+  </si>
+  <si>
+    <t>0.642+/-0.045</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.754+/-0.019</t>
+  </si>
+  <si>
+    <t>0.552+/-0.029</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.073+/-0.008</t>
+  </si>
+  <si>
+    <t>0.939+/-0.003</t>
+  </si>
+  <si>
+    <t>0.882+/-0.0</t>
+  </si>
+  <si>
+    <t>0.828+/-0.024</t>
+  </si>
+  <si>
+    <t>0.618+/-0.029</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.752+/-0.019</t>
+  </si>
+  <si>
+    <t>0.569+/-0.039</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.079+/-0.006</t>
+  </si>
+  <si>
+    <t>0.883+/-0.001</t>
+  </si>
+  <si>
+    <t>0.872+/-0.0</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.863+/-0.006</t>
+  </si>
+  <si>
+    <t>0.769+/-0.061</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.264+/-0.011</t>
+  </si>
+  <si>
+    <t>0.211+/-0.018</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>6.895+/-0.609</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.457+/-0.029</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.212+/-0.021</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.57+/-0.009</t>
+  </si>
+  <si>
+    <t>0.538+/-0.077</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.062+/-0.003</t>
+  </si>
+  <si>
+    <t>0.059+/-0.014</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.082+/-0.01</t>
+  </si>
+  <si>
+    <t>0.678+/-0.003</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.38+/-0.005</t>
+  </si>
+  <si>
+    <t>0.377+/-0.024</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.259+/-0.007</t>
+  </si>
+  <si>
+    <t>0.256+/-0.024</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.669+/-0.003</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.374+/-0.003</t>
+  </si>
+  <si>
+    <t>0.372+/-0.023</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.291+/-0.006</t>
+  </si>
+  <si>
+    <t>0.288+/-0.02</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.798+/-0.011</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.731+/-0.039</t>
+  </si>
+  <si>
+    <t>0.563+/-0.053</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.436+/-0.061</t>
+  </si>
+  <si>
+    <t>0.332+/-0.046</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>3.434+/-0.705</t>
+  </si>
+  <si>
+    <t>0.875+/-0.005</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.829+/-0.014</t>
+  </si>
+  <si>
+    <t>0.574+/-0.023</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.692+/-0.022</t>
+  </si>
+  <si>
+    <t>0.482+/-0.03</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.091+/-0.003</t>
+  </si>
+  <si>
+    <t>0.855+/-0.004</t>
+  </si>
+  <si>
+    <t>0.763+/-0.0</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.803+/-0.021</t>
+  </si>
+  <si>
+    <t>0.591+/-0.028</t>
+  </si>
+  <si>
+    <t>0.635+/-0.033</t>
+  </si>
+  <si>
+    <t>0.468+/-0.041</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.133+/-0.002</t>
+  </si>
+  <si>
+    <t>0.743+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.811+/-0.014</t>
+  </si>
+  <si>
+    <t>0.597+/-0.067</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.094+/-0.005</t>
+  </si>
+  <si>
+    <t>0.059+/-0.017</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>14.343+/-1.273</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.446+/-0.038</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.231+/-0.02</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.697+/-0.001</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
   </si>
   <si>
     <t>0.698</t>
   </si>
   <si>
-    <t>0.668+/-0.055</t>
-  </si>
-  <si>
-    <t>0.533+/-0.069</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>2.85+/-0.605</t>
-  </si>
-  <si>
-    <t>0.875+/-0.017</t>
-  </si>
-  <si>
-    <t>0.651+/-0.04</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.754+/-0.018</t>
-  </si>
-  <si>
-    <t>0.553+/-0.032</t>
-  </si>
-  <si>
-    <t>0.07+/-0.004</t>
-  </si>
-  <si>
-    <t>0.939+/-0.003</t>
-  </si>
-  <si>
-    <t>0.88+/-0.0</t>
-  </si>
-  <si>
-    <t>0.883</t>
-  </si>
-  <si>
-    <t>0.828+/-0.025</t>
-  </si>
-  <si>
-    <t>0.606+/-0.031</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.752+/-0.019</t>
-  </si>
-  <si>
-    <t>0.566+/-0.035</t>
-  </si>
-  <si>
-    <t>0.078+/-0.006</t>
-  </si>
-  <si>
-    <t>0.883+/-0.001</t>
-  </si>
-  <si>
-    <t>0.872+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.863+/-0.006</t>
-  </si>
-  <si>
-    <t>0.769+/-0.061</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.264+/-0.011</t>
-  </si>
-  <si>
-    <t>0.211+/-0.018</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>8.633+/-1.351</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.457+/-0.029</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.212+/-0.021</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.57+/-0.009</t>
-  </si>
-  <si>
-    <t>0.538+/-0.077</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.062+/-0.003</t>
-  </si>
-  <si>
-    <t>0.059+/-0.014</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.084+/-0.01</t>
-  </si>
-  <si>
-    <t>0.678+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.38+/-0.005</t>
-  </si>
-  <si>
-    <t>0.377+/-0.024</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.259+/-0.007</t>
-  </si>
-  <si>
-    <t>0.256+/-0.024</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.669+/-0.003</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.374+/-0.003</t>
-  </si>
-  <si>
-    <t>0.372+/-0.023</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.291+/-0.006</t>
-  </si>
-  <si>
-    <t>0.288+/-0.02</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.8+/-0.01</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.71+/-0.023</t>
-  </si>
-  <si>
-    <t>0.533+/-0.042</t>
-  </si>
-  <si>
-    <t>0.526</t>
-  </si>
-  <si>
-    <t>0.474+/-0.065</t>
-  </si>
-  <si>
-    <t>0.36+/-0.049</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>3.811+/-0.973</t>
-  </si>
-  <si>
-    <t>0.875+/-0.005</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.829+/-0.013</t>
-  </si>
-  <si>
-    <t>0.57+/-0.024</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.691+/-0.02</t>
-  </si>
-  <si>
-    <t>0.479+/-0.029</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.078+/-0.005</t>
-  </si>
-  <si>
-    <t>0.762+/-0.0</t>
-  </si>
-  <si>
-    <t>0.764</t>
-  </si>
-  <si>
-    <t>0.805+/-0.019</t>
-  </si>
-  <si>
-    <t>0.59+/-0.027</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.635+/-0.032</t>
-  </si>
-  <si>
-    <t>0.466+/-0.042</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.11+/-0.013</t>
-  </si>
-  <si>
-    <t>0.743+/-0.001</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.811+/-0.014</t>
-  </si>
-  <si>
-    <t>0.597+/-0.067</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.094+/-0.005</t>
-  </si>
-  <si>
-    <t>0.059+/-0.017</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>15.846+/-1.925</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.446+/-0.038</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.231+/-0.02</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697+/-0.001</t>
-  </si>
-  <si>
-    <t>0.696+/-0.0</t>
-  </si>
-  <si>
     <t>0.581+/-0.009</t>
   </si>
   <si>
@@ -793,7 +817,7 @@
     <t>0.058</t>
   </si>
   <si>
-    <t>0.087+/-0.008</t>
+    <t>0.093+/-0.008</t>
   </si>
   <si>
     <t>0.647+/-0.004</t>
@@ -844,94 +868,88 @@
     <t>0.261+/-0.024</t>
   </si>
   <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.778+/-0.006</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.725+/-0.032</t>
-  </si>
-  <si>
-    <t>0.531+/-0.03</t>
-  </si>
-  <si>
-    <t>0.457+/-0.041</t>
-  </si>
-  <si>
-    <t>0.336+/-0.049</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>3.744+/-0.888</t>
-  </si>
-  <si>
-    <t>0.848+/-0.004</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.836+/-0.011</t>
-  </si>
-  <si>
-    <t>0.582+/-0.022</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.632+/-0.018</t>
-  </si>
-  <si>
-    <t>0.45+/-0.032</t>
+    <t>0.772+/-0.009</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.702+/-0.038</t>
+  </si>
+  <si>
+    <t>0.543+/-0.04</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.463+/-0.061</t>
+  </si>
+  <si>
+    <t>0.353+/-0.059</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>3.731+/-1.011</t>
+  </si>
+  <si>
+    <t>0.848+/-0.005</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837+/-0.011</t>
+  </si>
+  <si>
+    <t>0.582+/-0.023</t>
+  </si>
+  <si>
+    <t>0.631+/-0.02</t>
+  </si>
+  <si>
+    <t>0.446+/-0.027</t>
   </si>
   <si>
     <t>0.449</t>
   </si>
   <si>
-    <t>0.079+/-0.005</t>
+    <t>0.082+/-0.009</t>
   </si>
   <si>
     <t>0.826+/-0.003</t>
   </si>
   <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>0.807+/-0.017</t>
-  </si>
-  <si>
-    <t>0.592+/-0.042</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.574+/-0.025</t>
-  </si>
-  <si>
-    <t>0.429+/-0.031</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.108+/-0.003</t>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.807+/-0.016</t>
+  </si>
+  <si>
+    <t>0.599+/-0.038</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.573+/-0.024</t>
+  </si>
+  <si>
+    <t>0.433+/-0.032</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.117+/-0.016</t>
   </si>
   <si>
     <t>0.714+/-0.001</t>
@@ -940,9 +958,6 @@
     <t>0.7+/-0.0</t>
   </si>
   <si>
-    <t>0.696</t>
-  </si>
-  <si>
     <t>0.829+/-0.007</t>
   </si>
   <si>
@@ -961,7 +976,7 @@
     <t>0.061</t>
   </si>
   <si>
-    <t>18.44+/-2.588</t>
+    <t>15.647+/-1.12</t>
   </si>
 </sst>
 </file>
@@ -1362,28 +1377,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2">
-        <v>0.7986820871436255</v>
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1391,31 +1406,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3">
-        <v>0.7986820871436255</v>
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1423,31 +1438,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1455,31 +1470,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1487,31 +1502,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1519,31 +1534,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1551,31 +1566,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1583,31 +1598,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1615,31 +1630,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1647,31 +1662,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1721,31 +1736,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2">
-        <v>0.8500537923614847</v>
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1753,31 +1768,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3">
-        <v>0.8500537923614847</v>
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1785,31 +1800,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>140</v>
+      </c>
+      <c r="J4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1817,31 +1832,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="J5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1849,31 +1864,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1881,31 +1896,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1913,31 +1928,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1945,31 +1960,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1977,31 +1992,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2009,31 +2024,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2083,31 +2098,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2">
-        <v>0.7231038192576654</v>
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2115,31 +2130,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3">
-        <v>0.7231038192576654</v>
+        <v>231</v>
+      </c>
+      <c r="J3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2147,31 +2162,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>232</v>
+      </c>
+      <c r="J4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2179,31 +2194,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="J5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2211,31 +2226,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="J6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2243,31 +2258,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2275,31 +2290,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="J8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2307,31 +2322,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="J9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2339,31 +2354,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="J10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2371,31 +2386,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J11" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2445,31 +2460,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
         <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2">
-        <v>0.6919042495965573</v>
+        <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2477,31 +2492,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
         <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3">
-        <v>0.6919042495965573</v>
+        <v>302</v>
+      </c>
+      <c r="J3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2509,31 +2524,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
         <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2541,31 +2556,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
         <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2573,31 +2588,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="J6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2605,31 +2620,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>310</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="J7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2637,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
         <v>273</v>
@@ -2652,16 +2667,16 @@
         <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="J8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2669,13 +2684,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
         <v>274</v>
@@ -2684,16 +2699,16 @@
         <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="J9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2701,31 +2716,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="J10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2733,31 +2748,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="J11" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="332">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -109,661 +109,682 @@
     <t>0.349</t>
   </si>
   <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.806+/-0.001</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.547+/-0.005</t>
+  </si>
+  <si>
+    <t>0.541+/-0.063</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.218+/-0.005</t>
+  </si>
+  <si>
+    <t>0.216+/-0.045</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.214+/-0.01</t>
+  </si>
+  <si>
+    <t>0.705+/-0.005</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.362+/-0.004</t>
+  </si>
+  <si>
+    <t>0.359+/-0.016</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.612+/-0.013</t>
+  </si>
+  <si>
+    <t>0.607+/-0.039</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.776+/-0.001</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.451+/-0.002</t>
+  </si>
+  <si>
+    <t>0.451+/-0.017</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.517+/-0.004</t>
+  </si>
+  <si>
+    <t>0.517+/-0.043</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.009+/-0.002</t>
+  </si>
+  <si>
+    <t>0.925+/-0.006</t>
+  </si>
+  <si>
+    <t>0.88+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>0.867+/-0.023</t>
+  </si>
+  <si>
+    <t>0.73+/-0.034</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.745+/-0.036</t>
+  </si>
+  <si>
+    <t>0.641+/-0.036</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>7.104+/-1.314</t>
+  </si>
+  <si>
+    <t>0.947+/-0.003</t>
+  </si>
+  <si>
+    <t>0.871+/-0.0</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.903+/-0.016</t>
+  </si>
+  <si>
+    <t>0.694+/-0.031</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.823+/-0.015</t>
+  </si>
+  <si>
+    <t>0.643+/-0.049</t>
+  </si>
+  <si>
+    <t>0.114+/-0.009</t>
+  </si>
+  <si>
+    <t>0.933+/-0.002</t>
+  </si>
+  <si>
+    <t>0.87+/-0.0</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.877+/-0.025</t>
+  </si>
+  <si>
+    <t>0.703+/-0.038</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.778+/-0.026</t>
+  </si>
+  <si>
+    <t>0.62+/-0.053</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.134+/-0.003</t>
+  </si>
+  <si>
+    <t>0.866+/-0.002</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.856+/-0.004</t>
+  </si>
+  <si>
+    <t>0.797+/-0.057</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.404+/-0.008</t>
+  </si>
+  <si>
+    <t>0.353+/-0.049</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>10.024+/-1.177</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.875+/-0.0</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.683+/-0.057</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.309+/-0.025</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.806+/-0.001</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.547+/-0.005</t>
-  </si>
-  <si>
-    <t>0.541+/-0.063</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>0.218+/-0.005</t>
-  </si>
-  <si>
-    <t>0.216+/-0.045</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.172+/-0.012</t>
-  </si>
-  <si>
-    <t>0.705+/-0.005</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.362+/-0.004</t>
-  </si>
-  <si>
-    <t>0.359+/-0.016</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.612+/-0.013</t>
-  </si>
-  <si>
-    <t>0.607+/-0.039</t>
-  </si>
-  <si>
-    <t>0.589</t>
+    <t>0.858+/-0.001</t>
+  </si>
+  <si>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.59+/-0.008</t>
+  </si>
+  <si>
+    <t>0.593+/-0.077</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.175+/-0.006</t>
+  </si>
+  <si>
+    <t>0.179+/-0.02</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.174+/-0.015</t>
+  </si>
+  <si>
+    <t>0.796+/-0.004</t>
+  </si>
+  <si>
+    <t>0.794+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.363+/-0.007</t>
+  </si>
+  <si>
+    <t>0.36+/-0.035</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.478+/-0.008</t>
+  </si>
+  <si>
+    <t>0.474+/-0.038</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83+/-0.001</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.438+/-0.004</t>
+  </si>
+  <si>
+    <t>0.435+/-0.041</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.481+/-0.008</t>
+  </si>
+  <si>
+    <t>0.479+/-0.041</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.93+/-0.004</t>
+  </si>
+  <si>
+    <t>0.884+/-0.0</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.809+/-0.032</t>
+  </si>
+  <si>
+    <t>0.64+/-0.037</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.702+/-0.048</t>
+  </si>
+  <si>
+    <t>0.528+/-0.047</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>4.463+/-0.626</t>
+  </si>
+  <si>
+    <t>0.886+/-0.0</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.877+/-0.016</t>
+  </si>
+  <si>
+    <t>0.643+/-0.038</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.753+/-0.017</t>
+  </si>
+  <si>
+    <t>0.546+/-0.033</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.097+/-0.004</t>
+  </si>
+  <si>
+    <t>0.939+/-0.003</t>
+  </si>
+  <si>
+    <t>0.883+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.827+/-0.023</t>
+  </si>
+  <si>
+    <t>0.617+/-0.027</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.753+/-0.018</t>
+  </si>
+  <si>
+    <t>0.572+/-0.035</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.117+/-0.015</t>
+  </si>
+  <si>
+    <t>0.883+/-0.001</t>
+  </si>
+  <si>
+    <t>0.872+/-0.0</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.863+/-0.006</t>
+  </si>
+  <si>
+    <t>0.769+/-0.061</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.264+/-0.011</t>
+  </si>
+  <si>
+    <t>0.211+/-0.018</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>8.288+/-0.845</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.457+/-0.034</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.218+/-0.028</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.728+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.575+/-0.01</t>
+  </si>
+  <si>
+    <t>0.547+/-0.087</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.062+/-0.003</t>
+  </si>
+  <si>
+    <t>0.062+/-0.016</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.107+/-0.015</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.379+/-0.004</t>
+  </si>
+  <si>
+    <t>0.375+/-0.025</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.27+/-0.009</t>
+  </si>
+  <si>
+    <t>0.267+/-0.027</t>
+  </si>
+  <si>
+    <t>0.272</t>
   </si>
   <si>
     <t>0.005+/-0.001</t>
   </si>
   <si>
-    <t>0.776+/-0.001</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.451+/-0.002</t>
-  </si>
-  <si>
-    <t>0.451+/-0.017</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.517+/-0.004</t>
-  </si>
-  <si>
-    <t>0.517+/-0.043</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.925+/-0.007</t>
-  </si>
-  <si>
-    <t>0.883+/-0.0</t>
-  </si>
-  <si>
-    <t>0.878</t>
-  </si>
-  <si>
-    <t>0.862+/-0.03</t>
-  </si>
-  <si>
-    <t>0.748+/-0.046</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.748+/-0.051</t>
-  </si>
-  <si>
-    <t>0.638+/-0.054</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>3.247+/-0.634</t>
-  </si>
-  <si>
-    <t>0.947+/-0.003</t>
-  </si>
-  <si>
-    <t>0.87+/-0.0</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>0.904+/-0.015</t>
-  </si>
-  <si>
-    <t>0.691+/-0.035</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.822+/-0.013</t>
-  </si>
-  <si>
-    <t>0.645+/-0.049</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.084+/-0.01</t>
-  </si>
-  <si>
-    <t>0.933+/-0.002</t>
-  </si>
-  <si>
-    <t>0.868</t>
-  </si>
-  <si>
-    <t>0.875+/-0.026</t>
-  </si>
-  <si>
-    <t>0.701+/-0.04</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.78+/-0.026</t>
-  </si>
-  <si>
-    <t>0.622+/-0.049</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.105+/-0.012</t>
-  </si>
-  <si>
-    <t>0.866+/-0.002</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.856+/-0.004</t>
-  </si>
-  <si>
-    <t>0.797+/-0.057</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.404+/-0.008</t>
-  </si>
-  <si>
-    <t>0.353+/-0.049</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>9.014+/-0.998</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.875+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683+/-0.057</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.309+/-0.025</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.858+/-0.001</t>
-  </si>
-  <si>
-    <t>0.858+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.59+/-0.008</t>
-  </si>
-  <si>
-    <t>0.593+/-0.077</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.175+/-0.006</t>
-  </si>
-  <si>
-    <t>0.179+/-0.02</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.145+/-0.009</t>
-  </si>
-  <si>
-    <t>0.796+/-0.004</t>
-  </si>
-  <si>
-    <t>0.794+/-0.0</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>0.363+/-0.007</t>
-  </si>
-  <si>
-    <t>0.36+/-0.035</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.478+/-0.008</t>
-  </si>
-  <si>
-    <t>0.474+/-0.038</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.83+/-0.001</t>
-  </si>
-  <si>
-    <t>0.828+/-0.0</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>0.438+/-0.004</t>
-  </si>
-  <si>
-    <t>0.435+/-0.041</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.481+/-0.008</t>
-  </si>
-  <si>
-    <t>0.479+/-0.041</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.929+/-0.005</t>
-  </si>
-  <si>
-    <t>0.885+/-0.0</t>
-  </si>
-  <si>
-    <t>0.886</t>
-  </si>
-  <si>
-    <t>0.817+/-0.043</t>
-  </si>
-  <si>
-    <t>0.645+/-0.052</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.683+/-0.04</t>
-  </si>
-  <si>
-    <t>0.527+/-0.051</t>
-  </si>
-  <si>
-    <t>2.822+/-0.476</t>
-  </si>
-  <si>
-    <t>0.886+/-0.0</t>
-  </si>
-  <si>
-    <t>0.877</t>
-  </si>
-  <si>
-    <t>0.875+/-0.017</t>
-  </si>
-  <si>
-    <t>0.642+/-0.045</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.754+/-0.019</t>
-  </si>
-  <si>
-    <t>0.552+/-0.029</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.073+/-0.008</t>
-  </si>
-  <si>
-    <t>0.939+/-0.003</t>
-  </si>
-  <si>
-    <t>0.882+/-0.0</t>
-  </si>
-  <si>
-    <t>0.828+/-0.024</t>
-  </si>
-  <si>
-    <t>0.618+/-0.029</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.752+/-0.019</t>
-  </si>
-  <si>
-    <t>0.569+/-0.039</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.079+/-0.006</t>
-  </si>
-  <si>
-    <t>0.883+/-0.001</t>
-  </si>
-  <si>
-    <t>0.872+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.863+/-0.006</t>
-  </si>
-  <si>
-    <t>0.769+/-0.061</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.264+/-0.011</t>
-  </si>
-  <si>
-    <t>0.211+/-0.018</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>6.895+/-0.609</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.457+/-0.029</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.212+/-0.021</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.727+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.57+/-0.009</t>
-  </si>
-  <si>
-    <t>0.538+/-0.077</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.062+/-0.003</t>
-  </si>
-  <si>
-    <t>0.059+/-0.014</t>
+    <t>0.665+/-0.003</t>
+  </si>
+  <si>
+    <t>0.663+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.369+/-0.004</t>
+  </si>
+  <si>
+    <t>0.365+/-0.024</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.297+/-0.008</t>
+  </si>
+  <si>
+    <t>0.294+/-0.025</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.796+/-0.008</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.728+/-0.032</t>
+  </si>
+  <si>
+    <t>0.545+/-0.036</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>0.428+/-0.061</t>
+  </si>
+  <si>
+    <t>0.316+/-0.061</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>4.212+/-1.131</t>
+  </si>
+  <si>
+    <t>0.876+/-0.005</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.825+/-0.014</t>
+  </si>
+  <si>
+    <t>0.57+/-0.026</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.701+/-0.021</t>
+  </si>
+  <si>
+    <t>0.489+/-0.034</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.094+/-0.005</t>
+  </si>
+  <si>
+    <t>0.856+/-0.006</t>
+  </si>
+  <si>
+    <t>0.763+/-0.0</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.804+/-0.022</t>
+  </si>
+  <si>
+    <t>0.594+/-0.029</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.637+/-0.033</t>
+  </si>
+  <si>
+    <t>0.458+/-0.043</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>0.145+/-0.015</t>
+  </si>
+  <si>
+    <t>0.744+/-0.001</t>
+  </si>
+  <si>
+    <t>0.729+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.814+/-0.015</t>
+  </si>
+  <si>
+    <t>0.613+/-0.057</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.096+/-0.007</t>
+  </si>
+  <si>
+    <t>0.061+/-0.017</t>
   </si>
   <si>
     <t>0.062</t>
   </si>
   <si>
-    <t>0.082+/-0.01</t>
-  </si>
-  <si>
-    <t>0.678+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.38+/-0.005</t>
-  </si>
-  <si>
-    <t>0.377+/-0.024</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.259+/-0.007</t>
-  </si>
-  <si>
-    <t>0.256+/-0.024</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.669+/-0.003</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.374+/-0.003</t>
-  </si>
-  <si>
-    <t>0.372+/-0.023</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.291+/-0.006</t>
-  </si>
-  <si>
-    <t>0.288+/-0.02</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.798+/-0.011</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731+/-0.039</t>
-  </si>
-  <si>
-    <t>0.563+/-0.053</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.436+/-0.061</t>
-  </si>
-  <si>
-    <t>0.332+/-0.046</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>3.434+/-0.705</t>
-  </si>
-  <si>
-    <t>0.875+/-0.005</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.829+/-0.014</t>
-  </si>
-  <si>
-    <t>0.574+/-0.023</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.692+/-0.022</t>
-  </si>
-  <si>
-    <t>0.482+/-0.03</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.091+/-0.003</t>
-  </si>
-  <si>
-    <t>0.855+/-0.004</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.803+/-0.021</t>
-  </si>
-  <si>
-    <t>0.591+/-0.028</t>
-  </si>
-  <si>
-    <t>0.635+/-0.033</t>
-  </si>
-  <si>
-    <t>0.468+/-0.041</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.133+/-0.002</t>
-  </si>
-  <si>
-    <t>0.743+/-0.001</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.811+/-0.014</t>
-  </si>
-  <si>
-    <t>0.597+/-0.067</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.094+/-0.005</t>
-  </si>
-  <si>
-    <t>0.059+/-0.017</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>14.343+/-1.273</t>
+    <t>18.741+/-1.096</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -772,211 +793,226 @@
     <t>0.692</t>
   </si>
   <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.446+/-0.038</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.231+/-0.02</t>
-  </si>
-  <si>
-    <t>0.239</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.45+/-0.038</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.232+/-0.022</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
   </si>
   <si>
     <t>0.697+/-0.001</t>
   </si>
   <si>
-    <t>0.696+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
   <si>
     <t>0.581+/-0.009</t>
   </si>
   <si>
-    <t>0.564+/-0.049</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.054+/-0.004</t>
-  </si>
-  <si>
-    <t>0.052+/-0.014</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.093+/-0.008</t>
-  </si>
-  <si>
-    <t>0.647+/-0.004</t>
-  </si>
-  <si>
-    <t>0.648+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.389+/-0.005</t>
-  </si>
-  <si>
-    <t>0.391+/-0.03</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.254+/-0.01</t>
-  </si>
-  <si>
-    <t>0.255+/-0.031</t>
-  </si>
-  <si>
-    <t>0.645+/-0.002</t>
-  </si>
-  <si>
-    <t>0.643+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.388+/-0.003</t>
-  </si>
-  <si>
-    <t>0.384+/-0.021</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.265+/-0.007</t>
-  </si>
-  <si>
-    <t>0.261+/-0.024</t>
-  </si>
-  <si>
-    <t>0.772+/-0.009</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
+    <t>0.58+/-0.057</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.055+/-0.003</t>
+  </si>
+  <si>
+    <t>0.056+/-0.015</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.143+/-0.017</t>
+  </si>
+  <si>
+    <t>0.648+/-0.004</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.392+/-0.004</t>
+  </si>
+  <si>
+    <t>0.397+/-0.034</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.255+/-0.012</t>
+  </si>
+  <si>
+    <t>0.262+/-0.038</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.008+/-0.003</t>
+  </si>
+  <si>
+    <t>0.646+/-0.003</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.39+/-0.004</t>
+  </si>
+  <si>
+    <t>0.392+/-0.024</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>0.26+/-0.006</t>
+  </si>
+  <si>
+    <t>0.261+/-0.022</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.01+/-0.002</t>
+  </si>
+  <si>
+    <t>0.778+/-0.006</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
   </si>
   <si>
     <t>0.702</t>
   </si>
   <si>
-    <t>0.702+/-0.038</t>
-  </si>
-  <si>
-    <t>0.543+/-0.04</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.463+/-0.061</t>
-  </si>
-  <si>
-    <t>0.353+/-0.059</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>3.731+/-1.011</t>
-  </si>
-  <si>
-    <t>0.848+/-0.005</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.837+/-0.011</t>
-  </si>
-  <si>
-    <t>0.582+/-0.023</t>
-  </si>
-  <si>
-    <t>0.631+/-0.02</t>
-  </si>
-  <si>
-    <t>0.446+/-0.027</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.082+/-0.009</t>
-  </si>
-  <si>
-    <t>0.826+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.807+/-0.016</t>
-  </si>
-  <si>
-    <t>0.599+/-0.038</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.573+/-0.024</t>
-  </si>
-  <si>
-    <t>0.433+/-0.032</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.117+/-0.016</t>
+    <t>0.727+/-0.038</t>
+  </si>
+  <si>
+    <t>0.526+/-0.039</t>
+  </si>
+  <si>
+    <t>0.456+/-0.058</t>
+  </si>
+  <si>
+    <t>0.325+/-0.053</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>6.301+/-1.559</t>
+  </si>
+  <si>
+    <t>0.85+/-0.004</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.84+/-0.011</t>
+  </si>
+  <si>
+    <t>0.568+/-0.027</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.634+/-0.017</t>
+  </si>
+  <si>
+    <t>0.447+/-0.032</t>
+  </si>
+  <si>
+    <t>0.096+/-0.005</t>
+  </si>
+  <si>
+    <t>0.828+/-0.002</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.808+/-0.014</t>
+  </si>
+  <si>
+    <t>0.601+/-0.027</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.578+/-0.018</t>
+  </si>
+  <si>
+    <t>0.436+/-0.025</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.123+/-0.005</t>
   </si>
   <si>
     <t>0.714+/-0.001</t>
   </si>
   <si>
-    <t>0.7+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829+/-0.007</t>
-  </si>
-  <si>
-    <t>0.655+/-0.098</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.089+/-0.003</t>
-  </si>
-  <si>
-    <t>0.058+/-0.017</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>15.647+/-1.12</t>
+    <t>0.825+/-0.007</t>
+  </si>
+  <si>
+    <t>0.656+/-0.088</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.092+/-0.004</t>
+  </si>
+  <si>
+    <t>0.06+/-0.017</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>22.124+/-2.215</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1431,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
         <v>90</v>
@@ -1427,7 +1463,7 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
         <v>91</v>
@@ -1648,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>88</v>
@@ -1680,7 +1716,7 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>89</v>
@@ -1742,25 +1778,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1774,25 +1810,25 @@
         <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1803,28 +1839,28 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1838,25 +1874,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1867,28 +1903,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1899,28 +1935,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1934,25 +1970,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1963,28 +1999,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1995,28 +2031,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2027,28 +2063,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2098,31 +2134,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2130,31 +2166,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2162,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2200,25 +2236,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2229,28 +2265,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2261,28 +2297,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2296,25 +2332,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2325,28 +2361,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2357,28 +2393,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2389,28 +2425,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J11" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2460,31 +2496,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="J2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2492,31 +2528,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2524,28 +2560,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="J4" t="s">
         <v>85</v>
@@ -2562,25 +2598,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="J5" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2591,28 +2627,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2623,28 +2659,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2658,25 +2694,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2687,28 +2723,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="J9" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2719,28 +2755,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="J10" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2748,31 +2784,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="I11" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="J11" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
